--- a/data/trans_bre/P57_AC_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2365087549563572</v>
+        <v>0.1813603279617133</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.285810593709503</v>
+        <v>1.441872061047562</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.231057147212072</v>
+        <v>1.97162990541685</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.4239987226110131</v>
+        <v>0.3876425489691867</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.003060379336914637</v>
+        <v>0.002228199478819288</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01834118841781074</v>
+        <v>0.01970794295539431</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02749386868067571</v>
+        <v>0.02410693573605096</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.005853304864951251</v>
+        <v>0.004744962213631907</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.305684505376911</v>
+        <v>7.179095546970079</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.830104514651293</v>
+        <v>9.380993128014479</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.875698011599088</v>
+        <v>9.54815128705089</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.048580065591846</v>
+        <v>9.407067220515266</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1008064210210123</v>
+        <v>0.09972636422323075</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1298559530314761</v>
+        <v>0.1364354599585032</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1296549236705714</v>
+        <v>0.1243195682592891</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.143970189005343</v>
+        <v>0.1504260623378849</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.811396867914129</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.618801223724287</v>
+        <v>1.618801223724309</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03965155175722421</v>
@@ -749,7 +749,7 @@
         <v>0.03496598066520112</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.02591932612399475</v>
+        <v>0.02591932612399511</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.037472585624998</v>
+        <v>-0.4393816564291659</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.473208217340394</v>
+        <v>5.49395527660344</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3394026641328377</v>
+        <v>0.4447875465443069</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.749112862765173</v>
+        <v>-1.600329323898856</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.01594489729972907</v>
+        <v>-0.006642411648961447</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0808492858381656</v>
+        <v>0.08321052641732973</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.004713630659426351</v>
+        <v>0.005403046481643381</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02665952893089436</v>
+        <v>-0.02486194457276465</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.684701014314189</v>
+        <v>5.884182365846903</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.53930989981309</v>
+        <v>11.42182491289554</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.371313568689449</v>
+        <v>5.281053863576175</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.46324615272077</v>
+        <v>4.948638407403588</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.09004563958759171</v>
+        <v>0.09349728221307659</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1817178341715342</v>
+        <v>0.1801504511050003</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06793963335511156</v>
+        <v>0.0665736322196132</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.07369091171071573</v>
+        <v>0.08284770131245438</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-1.158522133557316</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-3.578241105779223</v>
+        <v>-3.578241105779245</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.06332935380364531</v>
@@ -849,7 +849,7 @@
         <v>-0.01569969963141379</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.06041307964200974</v>
+        <v>-0.06041307964201011</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.12202234725888</v>
+        <v>-10.47443152745333</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.84836138744449</v>
+        <v>-6.3114368809933</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.3331978958243</v>
+        <v>-6.648030156089474</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.824977814009369</v>
+        <v>-8.623139603389371</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1453997073035461</v>
+        <v>-0.1491760917402487</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.08826179037159135</v>
+        <v>-0.09302994389079604</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.09559141970264208</v>
+        <v>-0.08734269804213167</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1429485585122321</v>
+        <v>-0.1403336030446087</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.020893993939495</v>
+        <v>2.139570020699938</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.965874535163178</v>
+        <v>7.153956316144558</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.111645924494614</v>
+        <v>4.351882017088153</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.507741122540009</v>
+        <v>1.58667483101756</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.03147184128927383</v>
+        <v>0.03378735856858497</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1370324188241456</v>
+        <v>0.1218951291760255</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05760948804451897</v>
+        <v>0.06158527272406657</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.02668329645255164</v>
+        <v>0.027889438839393</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.020198233232729</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.477914446982243</v>
+        <v>1.477914446982276</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04037870821072605</v>
@@ -949,7 +949,7 @@
         <v>0.03821060373590372</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.02368178127408235</v>
+        <v>0.0236817812740829</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3989066235438271</v>
+        <v>0.5532434128551464</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.739028719817639</v>
+        <v>4.715853705701123</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.010494490818527</v>
+        <v>1.147920046695577</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.995812987822186</v>
+        <v>-0.9285151558106589</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.005691941806400449</v>
+        <v>0.008048270227557046</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07009821183173177</v>
+        <v>0.07014695210444809</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01310201409782203</v>
+        <v>0.01425310803574972</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.01552209508644446</v>
+        <v>-0.01454204329135884</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.045387588760863</v>
+        <v>4.82233602098122</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.162853245184428</v>
+        <v>9.106383293810779</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.930075765227892</v>
+        <v>5.098536136651862</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.826358644366397</v>
+        <v>4.010429712157413</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07571215758711709</v>
+        <v>0.07257561489187474</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1405090421147843</v>
+        <v>0.1404593227294164</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06356168108865691</v>
+        <v>0.06538777425175618</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.0627725633759562</v>
+        <v>0.06582011083204302</v>
       </c>
     </row>
     <row r="16">
